--- a/Replication Package/Code and Data/(3) Core Results/Decompositions/Output Data Python (New Model)/excess_demand_components.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/Decompositions/Output Data Python (New Model)/excess_demand_components.xlsx
@@ -510,12 +510,12 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>gcu_contr_gcpi_direct</t>
+          <t>cu_contr_gcpi_direct</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>gcu_contr_gw</t>
+          <t>cu_contr_gw</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -529,16 +529,16 @@
         <v>43374</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.819108862458768</v>
+        <v>-0.1085213692111502</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.02819780372488623</v>
+        <v>-0.05379107701226006</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.02922048654658926</v>
+        <v>-0.02922048654658838</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.03428013632427085</v>
+        <v>-0.03428013632427149</v>
       </c>
       <c r="F2" t="n">
         <v>0.03530281914597388</v>
@@ -582,16 +582,16 @@
         <v>43466</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.807951322152864</v>
+        <v>-0.09098396086582916</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01704026341898146</v>
+        <v>-0.03625366866693902</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.02257103463570331</v>
+        <v>-0.02257103463570242</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.02148138566120839</v>
+        <v>-0.021481385661209</v>
       </c>
       <c r="F3" t="n">
         <v>0.02701215687793024</v>
@@ -635,16 +635,16 @@
         <v>43556</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.802033902115962</v>
+        <v>-0.07805013764303048</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01112284338208003</v>
+        <v>-0.02331984544414034</v>
       </c>
       <c r="D4" t="n">
         <v>-0.01596550603039404</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01174630630727247</v>
+        <v>-0.01174630630727241</v>
       </c>
       <c r="F4" t="n">
         <v>0.01658896895558648</v>
@@ -688,16 +688,16 @@
         <v>43647</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.797978741841733</v>
+        <v>-0.06752585519471843</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.007067683107850442</v>
+        <v>-0.01279556299582829</v>
       </c>
       <c r="D5" t="n">
         <v>-0.00722546496104215</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.008013531667309337</v>
+        <v>-0.008013531667309837</v>
       </c>
       <c r="F5" t="n">
         <v>0.008171313520501045</v>
@@ -741,7 +741,7 @@
         <v>43739</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.790911058733882</v>
+        <v>-0.05473029219889014</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -756,28 +756,28 @@
         <v>-0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-0.4503018705046689</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.04835810352511993</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -794,52 +794,52 @@
         <v>43831</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.772475284455856</v>
+        <v>-0.03173426093010878</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0184357742780259</v>
+        <v>0.02299603126878136</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01002873734811605</v>
+        <v>0.01002873734811693</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01797784164150862</v>
+        <v>0.01797784164150806</v>
       </c>
       <c r="F7" t="n">
         <v>-0.009570804711598768</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.8526454039101168</v>
+        <v>0.3953940810068097</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.4638241214031894</v>
+        <v>0.1724342492437174</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.8314662469114171</v>
+        <v>0.3091112588623094</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4426449644044898</v>
+        <v>-0.1645605491316059</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.09156594145676711</v>
+        <v>0.05456956940366964</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.04981026362410087</v>
+        <v>0.02379818814615146</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08929150305487896</v>
+        <v>0.04266140821074146</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04753582522221271</v>
+        <v>-0.02271151425453052</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.005579484131193801</v>
+        <v>-0.001099119732714593</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.01513906515331653</v>
+        <v>-0.003055458875428574</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.09487098718607276</v>
+        <v>0.04156228847802686</v>
       </c>
     </row>
     <row r="8">
@@ -847,52 +847,52 @@
         <v>43922</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.637097484124242</v>
+        <v>0.104098170574666</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1538135746096403</v>
+        <v>0.1588284627735561</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01358619396364347</v>
+        <v>0.01358619396364524</v>
       </c>
       <c r="E8" t="n">
-        <v>0.151029665444864</v>
+        <v>0.1510296654448635</v>
       </c>
       <c r="F8" t="n">
         <v>-0.01080228479886713</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.088277421200017</v>
+        <v>-3.053425897046512</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.4494422820657746</v>
+        <v>-0.2611901907659731</v>
       </c>
       <c r="I8" t="n">
-        <v>-4.996183454970099</v>
+        <v>-2.903496537324647</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3573483158358565</v>
+        <v>0.2076704362439022</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.5234366481468875</v>
+        <v>-0.3482019102768309</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04623461776667726</v>
+        <v>-0.0297852073168869</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.5139628413931331</v>
+        <v>-0.3311044953658508</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03676081101292281</v>
+        <v>0.0236820034434417</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02179755112064807</v>
+        <v>-0.008037257730712954</v>
       </c>
       <c r="P8" t="n">
-        <v>0.06700597961610644</v>
+        <v>-0.02056741267354933</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.492165290272485</v>
+        <v>-0.3391417530965638</v>
       </c>
     </row>
     <row r="9">
@@ -900,52 +900,52 @@
         <v>44013</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.738912226113569</v>
+        <v>0.004751989929596689</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05199883262031335</v>
+        <v>0.05948228212848683</v>
       </c>
       <c r="D9" t="n">
         <v>0.01925193149932092</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0570863383509046</v>
+        <v>0.05708633835090476</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02433943722991216</v>
+        <v>-0.02433943722991039</v>
       </c>
       <c r="G9" t="n">
-        <v>13.87668223856639</v>
+        <v>11.21967085925533</v>
       </c>
       <c r="H9" t="n">
-        <v>5.137671798238795</v>
+        <v>3.631339065988278</v>
       </c>
       <c r="I9" t="n">
-        <v>15.23436080273326</v>
+        <v>10.76774299738068</v>
       </c>
       <c r="J9" t="n">
-        <v>-6.495350362405663</v>
+        <v>-4.590954900304977</v>
       </c>
       <c r="K9" t="n">
-        <v>1.609283812830841</v>
+        <v>1.299625889541883</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5958176398652898</v>
+        <v>0.4206346445511006</v>
       </c>
       <c r="M9" t="n">
-        <v>1.76673428253093</v>
+        <v>1.247277014350674</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.7532681095653786</v>
+        <v>-0.5317913440601173</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.002874316744263083</v>
+        <v>0.1299106745861942</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03803185522194674</v>
+        <v>0.3746160871396409</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.763859965786667</v>
+        <v>1.377187688936868</v>
       </c>
     </row>
     <row r="10">
@@ -953,52 +953,52 @@
         <v>44105</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.765380890630269</v>
+        <v>-0.01888149533613426</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02553016810361353</v>
+        <v>0.03584879686275588</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02769080014518543</v>
+        <v>0.02769080014518721</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03380811693513852</v>
+        <v>0.03380811693513808</v>
       </c>
       <c r="F10" t="n">
         <v>-0.03596874897671043</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.168345741918104</v>
+        <v>-2.864006708739342</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.35185402389182</v>
+        <v>-2.212253808399633</v>
       </c>
       <c r="I10" t="n">
-        <v>-2.871414167782195</v>
+        <v>-2.700974152152788</v>
       </c>
       <c r="J10" t="n">
-        <v>3.05492244975591</v>
+        <v>2.873589838137199</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.7075207881363621</v>
+        <v>-0.6626553095935908</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.7673986580634803</v>
+        <v>-0.5118569477618073</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.9369286344796877</v>
+        <v>-0.6249338933241955</v>
       </c>
       <c r="N10" t="n">
-        <v>0.996806504406806</v>
+        <v>0.664872591961902</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6672117410865654</v>
+        <v>0.6467390080828732</v>
       </c>
       <c r="P10" t="n">
-        <v>1.816429832215487</v>
+        <v>1.587953818099889</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.2697168933931222</v>
+        <v>0.02180511475867775</v>
       </c>
     </row>
     <row r="11">
@@ -1006,52 +1006,52 @@
         <v>44197</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.779211753990309</v>
+        <v>-0.0298617815314195</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01169930474357272</v>
+        <v>0.02486851066747064</v>
       </c>
       <c r="D11" t="n">
         <v>0.03952525779218874</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02560003899315788</v>
+        <v>0.02560003899315777</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0534259920417739</v>
+        <v>-0.05342599204177034</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.23853282496665</v>
+        <v>-9.546757297510279</v>
       </c>
       <c r="H11" t="n">
-        <v>-37.96857307754263</v>
+        <v>-15.1733269558893</v>
       </c>
       <c r="I11" t="n">
-        <v>-24.59179283308175</v>
+        <v>-9.827583257495256</v>
       </c>
       <c r="J11" t="n">
-        <v>51.32183308565772</v>
+        <v>20.5096712956222</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.7748436946126303</v>
+        <v>-0.6961566856832198</v>
       </c>
       <c r="L11" t="n">
-        <v>-2.617753571642041</v>
+        <v>-1.106450355363544</v>
       </c>
       <c r="M11" t="n">
-        <v>-1.695487828589405</v>
+        <v>-0.7166347248188679</v>
       </c>
       <c r="N11" t="n">
-        <v>3.538397705618817</v>
+        <v>1.495580577641394</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.1480237479286686</v>
+        <v>0.02143660639014033</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.359058385987417</v>
+        <v>-0.9836579724965206</v>
       </c>
       <c r="Q11" t="n">
-        <v>-1.843511576518074</v>
+        <v>-0.6951981184287276</v>
       </c>
     </row>
     <row r="12">
@@ -1059,52 +1059,52 @@
         <v>44287</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.813314345583091</v>
+        <v>-0.06050147960863761</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.022403286849209</v>
+        <v>-0.005771187409747469</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04779546344085972</v>
+        <v>0.04779546344086061</v>
       </c>
       <c r="E12" t="n">
-        <v>0.003527788320844216</v>
+        <v>0.003527788320843717</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.07372653861091294</v>
+        <v>-0.07372653861091116</v>
       </c>
       <c r="G12" t="n">
-        <v>6.951530062863725</v>
+        <v>7.626897538145911</v>
       </c>
       <c r="H12" t="n">
-        <v>-14.83048461656292</v>
+        <v>-63.16396896693284</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.09463967197447</v>
+        <v>-4.662139374281761</v>
       </c>
       <c r="J12" t="n">
-        <v>22.87665435140111</v>
+        <v>97.433113136796</v>
       </c>
       <c r="K12" t="n">
-        <v>1.047545343417386</v>
+        <v>1.024696887513366</v>
       </c>
       <c r="L12" t="n">
-        <v>-2.234846855327226</v>
+        <v>-8.486271394061653</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.1649542878657146</v>
+        <v>-0.6263726085326931</v>
       </c>
       <c r="N12" t="n">
-        <v>3.447346486610327</v>
+        <v>13.09043517008926</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.1402262041891262</v>
+        <v>0.2061384206402597</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.2184911543699735</v>
+        <v>0.5114472160176113</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.3051804920548408</v>
+        <v>-0.4202341878924334</v>
       </c>
     </row>
     <row r="13">
@@ -1112,52 +1112,52 @@
         <v>44378</v>
       </c>
       <c r="B13" t="n">
-        <v>-4.826443893376199</v>
+        <v>-0.07019994069958724</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03553283464231694</v>
+        <v>-0.0154696485006971</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06345802400381562</v>
+        <v>0.0634580240038165</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.005226721957527047</v>
+        <v>-0.005226721957527491</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0937641366886055</v>
+        <v>-0.09376413668861083</v>
       </c>
       <c r="G13" t="n">
-        <v>2.03238016635143</v>
+        <v>1.920303214181097</v>
       </c>
       <c r="H13" t="n">
-        <v>-3.629623999308326</v>
+        <v>-7.877273194321046</v>
       </c>
       <c r="I13" t="n">
-        <v>0.298954084255937</v>
+        <v>0.6488118313883259</v>
       </c>
       <c r="J13" t="n">
-        <v>5.363050081403819</v>
+        <v>11.63928017174672</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.7013563939875276</v>
+        <v>-0.5914225308572414</v>
       </c>
       <c r="L13" t="n">
-        <v>1.252551093457823</v>
+        <v>2.426073556735663</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.1031664065478445</v>
+        <v>-0.1998236177162479</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.850741080897506</v>
+        <v>-3.584711250648238</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2238005034421153</v>
+        <v>0.3442919603128534</v>
       </c>
       <c r="P13" t="n">
-        <v>0.3535042657350278</v>
+        <v>0.2232269293209725</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1206340968942708</v>
+        <v>0.1444683425966055</v>
       </c>
     </row>
     <row r="14">
@@ -1165,52 +1165,52 @@
         <v>44470</v>
       </c>
       <c r="B14" t="n">
-        <v>-4.846875781021601</v>
+        <v>-0.08685919127319508</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.05596472228771887</v>
+        <v>-0.03212889907430494</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07621415534825271</v>
+        <v>0.0762141553482536</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01592334306286691</v>
+        <v>-0.0159233430628675</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1162555345731047</v>
+        <v>-0.1162555345731011</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.185236529842541</v>
+        <v>-3.175862463480986</v>
       </c>
       <c r="H14" t="n">
-        <v>4.337734590342479</v>
+        <v>7.533581359157216</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.9062783111887008</v>
+        <v>-1.573983204638805</v>
       </c>
       <c r="J14" t="n">
-        <v>-6.616692808996318</v>
+        <v>-11.49157297823206</v>
       </c>
       <c r="K14" t="n">
-        <v>0.07628188348762244</v>
+        <v>0.06022336709242637</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.1038825724622378</v>
+        <v>-0.1428580868756824</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02170407625736768</v>
+        <v>0.02984718936045447</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1584603796924925</v>
+        <v>0.2179128428562128</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.2038707602638858</v>
+        <v>0.01465599500563464</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.4700099198750243</v>
+        <v>-0.2710547439190387</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1821666840065182</v>
+        <v>0.04450318436608911</v>
       </c>
     </row>
     <row r="15">
@@ -1218,52 +1218,52 @@
         <v>44562</v>
       </c>
       <c r="B15" t="n">
-        <v>-4.863051459681091</v>
+        <v>-0.09908871752493198</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.07214040094720886</v>
+        <v>-0.04435842532604184</v>
       </c>
       <c r="D15" t="n">
         <v>0.08880961520123165</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01922334998873865</v>
+        <v>-0.01922334998873856</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1417266661597019</v>
+        <v>-0.1417266661597001</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4396877991250108</v>
+        <v>-0.3457313999166232</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5412848242629492</v>
+        <v>0.6921858105624107</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1171642011602282</v>
+        <v>-0.1498275841363557</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.8638084222277318</v>
+        <v>-1.104623492307392</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2886064772226415</v>
+        <v>0.2446375732872124</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.3552937029762585</v>
+        <v>-0.4897867448564611</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0769053574394144</v>
+        <v>0.1060171468470699</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5669948227594857</v>
+        <v>0.781625303976716</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.1236228666022026</v>
+        <v>0.07357975171145092</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01198166855976179</v>
+        <v>0.146668722349852</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.04671750916278816</v>
+        <v>0.1795968985585208</v>
       </c>
     </row>
     <row r="16">
@@ -1271,52 +1271,52 @@
         <v>44652</v>
       </c>
       <c r="B16" t="n">
-        <v>-4.880354700123468</v>
+        <v>-0.1121312753026862</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.08944364138958605</v>
+        <v>-0.05740098310379606</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1031983526533304</v>
+        <v>0.1031983526533322</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.02303083280429785</v>
+        <v>-0.02303083280429824</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1696111612386186</v>
+        <v>-0.1696111612386204</v>
       </c>
       <c r="G16" t="n">
-        <v>1.733138447402041</v>
+        <v>2.071081087476244</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.999661797231634</v>
+        <v>-3.723492959215287</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4462656169705559</v>
+        <v>0.8309739602117571</v>
       </c>
       <c r="J16" t="n">
-        <v>3.286534627663119</v>
+        <v>6.119729127826727</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.2817775750198042</v>
+        <v>-0.2345291324899321</v>
       </c>
       <c r="L16" t="n">
-        <v>0.325109545015457</v>
+        <v>0.4216481811541567</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.07255487497445724</v>
+        <v>-0.09409945520176169</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.534332245060804</v>
+        <v>-0.6929978609246674</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.01340588119028752</v>
+        <v>0.06778484227206505</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.06900073680243679</v>
+        <v>-0.1306841742144664</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.08596075616474476</v>
+        <v>-0.02631461292969664</v>
       </c>
     </row>
     <row r="17">
@@ -1324,52 +1324,52 @@
         <v>44743</v>
       </c>
       <c r="B17" t="n">
-        <v>-4.882414805952292</v>
+        <v>-0.1098773244121425</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.09150374721841015</v>
+        <v>-0.05514703221325236</v>
       </c>
       <c r="D17" t="n">
         <v>0.1148188836763495</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.01999482553647258</v>
+        <v>-0.01999482553647253</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1863278053582871</v>
+        <v>-0.1863278053582906</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.983108218243899</v>
+        <v>-0.4618587046185638</v>
       </c>
       <c r="H17" t="n">
-        <v>1.233603995280957</v>
+        <v>0.9616129599765607</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.2148226483046615</v>
+        <v>-0.16745750135091</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.001889565220194</v>
+        <v>-1.560503174212876</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03067879104923232</v>
+        <v>0.06040074845345922</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0384957408619013</v>
+        <v>-0.125757384075069</v>
       </c>
       <c r="M17" t="n">
-        <v>0.006703737205812268</v>
+        <v>0.02189968125445303</v>
       </c>
       <c r="N17" t="n">
-        <v>0.06247079470532135</v>
+        <v>0.204078777218889</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1372600118236607</v>
+        <v>-0.06130785628441693</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.08632726983346561</v>
+        <v>-0.08323773029433745</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.1305562746178484</v>
+        <v>-0.0394081750299639</v>
       </c>
     </row>
     <row r="18">
@@ -1377,10 +1377,10 @@
         <v>44835</v>
       </c>
       <c r="B18" t="n">
-        <v>-4.876782449965692</v>
+        <v>-0.1002170725125975</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.08587139123180965</v>
+        <v>-0.04548678031370736</v>
       </c>
       <c r="D18" t="n">
         <v>0.1263059276634806</v>
@@ -1392,37 +1392,37 @@
         <v>-0.2011288848330306</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.263057847983049</v>
+        <v>-1.350612680718882</v>
       </c>
       <c r="H18" t="n">
-        <v>1.857797933557207</v>
+        <v>3.750328917011777</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1625082713821334</v>
+        <v>-0.3280547676415236</v>
       </c>
       <c r="J18" t="n">
-        <v>-2.958347510158123</v>
+        <v>-5.972003743524542</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.006655013877576721</v>
+        <v>-0.03325821982233101</v>
       </c>
       <c r="L18" t="n">
-        <v>0.009788681531332758</v>
+        <v>0.09235013509693499</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.0008562512025843619</v>
+        <v>-0.008078198681044698</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.01558744420632512</v>
+        <v>-0.1470578620483599</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.06225814411308583</v>
+        <v>-0.03320167761536119</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.02345471088259909</v>
+        <v>-0.07540468810167056</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.0631143953156702</v>
+        <v>-0.04127987629640589</v>
       </c>
     </row>
     <row r="19">
@@ -1430,10 +1430,10 @@
         <v>44927</v>
       </c>
       <c r="B19" t="n">
-        <v>-4.876178618056888</v>
+        <v>-0.09574139239785673</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.08526755932300567</v>
+        <v>-0.04101110019896659</v>
       </c>
       <c r="D19" t="n">
         <v>0.1382896724646008</v>
@@ -1442,40 +1442,40 @@
         <v>-0.007793395941804171</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2157638358458023</v>
+        <v>-0.2157638358458005</v>
       </c>
       <c r="G19" t="n">
-        <v>1.017788152013821</v>
+        <v>0.6021485165934379</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.650681587438936</v>
+        <v>-2.03044835985283</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09302513308107292</v>
+        <v>0.114427113216069</v>
       </c>
       <c r="J19" t="n">
-        <v>2.575444606371685</v>
+        <v>3.167968502642917</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01085278654357102</v>
+        <v>-0.02123269533878869</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.01760139856652062</v>
+        <v>0.07159677428053325</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0009919371831147647</v>
+        <v>-0.004034878383756449</v>
       </c>
       <c r="N19" t="n">
-        <v>0.02746224792697688</v>
+        <v>-0.1117075077092844</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.0235713039910781</v>
+        <v>-0.03771181673895541</v>
       </c>
       <c r="P19" t="n">
-        <v>0.004103230162844973</v>
+        <v>-0.0565818677720813</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.02257936680796333</v>
+        <v>-0.04174669512271185</v>
       </c>
     </row>
     <row r="20">
@@ -1483,52 +1483,52 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>-4.873219706901331</v>
+        <v>-0.08905033559989128</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.08230864816744887</v>
+        <v>-0.03432004340100114</v>
       </c>
       <c r="D20" t="n">
         <v>0.1482710404226308</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.00466377738107937</v>
+        <v>-0.004663777381079648</v>
       </c>
       <c r="F20" t="n">
         <v>-0.2259159112090003</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.03657323139697155</v>
+        <v>0.2101562562204862</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06588312639778197</v>
+        <v>-0.9079267877682085</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.002072314551870309</v>
+        <v>0.02855829705113052</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.1003840432428832</v>
+        <v>1.383379431243328</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01119859110551769</v>
+        <v>0.001559349085103356</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0201731748905018</v>
+        <v>-0.006736772110946914</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0006345352166593454</v>
+        <v>0.0002119011595451576</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.03073723077936015</v>
+        <v>0.01026460734148633</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.01525976423996189</v>
+        <v>-0.0432008815639926</v>
       </c>
       <c r="P20" t="n">
-        <v>0.08987924439261885</v>
+        <v>0.01966297622579205</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.01589429945662124</v>
+        <v>-0.04298898040444744</v>
       </c>
     </row>
   </sheetData>
